--- a/predictions полгода до/Прогнозы_GP_Combo_2.xlsx
+++ b/predictions полгода до/Прогнозы_GP_Combo_2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16573603.24991133</v>
+        <v>17576761.71457049</v>
       </c>
       <c r="C2" t="n">
-        <v>16539755.40769042</v>
+        <v>17177852.92144676</v>
       </c>
       <c r="D2" t="n">
-        <v>16506653.48522845</v>
+        <v>17418574.44933938</v>
       </c>
       <c r="E2" t="n">
-        <v>16473843.56473093</v>
+        <v>17034780.43097276</v>
       </c>
       <c r="F2" t="n">
-        <v>16440761.88771376</v>
+        <v>17261840.13256598</v>
       </c>
       <c r="G2" t="n">
-        <v>16407076.49004097</v>
+        <v>16894054.02015533</v>
       </c>
       <c r="H2" t="n">
-        <v>16372888.24591449</v>
+        <v>17106552.16698489</v>
       </c>
       <c r="I2" t="n">
-        <v>16338669.28702744</v>
+        <v>16755623.81075153</v>
       </c>
       <c r="J2" t="n">
-        <v>16304976.59442306</v>
+        <v>16952707.1782506</v>
       </c>
       <c r="K2" t="n">
-        <v>16272114.49876092</v>
+        <v>16619440.60719813</v>
       </c>
       <c r="L2" t="n">
-        <v>16239950.11707949</v>
+        <v>16800304.93290286</v>
       </c>
       <c r="M2" t="n">
-        <v>16207993.41846055</v>
+        <v>16485455.94269195</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5245856.147747207</v>
+        <v>5305827.121241872</v>
       </c>
       <c r="C3" t="n">
-        <v>4566234.198288397</v>
+        <v>4638598.238196362</v>
       </c>
       <c r="D3" t="n">
-        <v>3992914.408451614</v>
+        <v>4087039.076146152</v>
       </c>
       <c r="E3" t="n">
-        <v>3509269.66791091</v>
+        <v>3631096.324960615</v>
       </c>
       <c r="F3" t="n">
-        <v>3101273.573594969</v>
+        <v>3254193.699593252</v>
       </c>
       <c r="G3" t="n">
-        <v>2757093.643535346</v>
+        <v>2942630.271959024</v>
       </c>
       <c r="H3" t="n">
-        <v>2466748.157627341</v>
+        <v>2685079.284297038</v>
       </c>
       <c r="I3" t="n">
-        <v>2221816.673184948</v>
+        <v>2472176.005858832</v>
       </c>
       <c r="J3" t="n">
-        <v>2015195.819818625</v>
+        <v>2296180.43542436</v>
       </c>
       <c r="K3" t="n">
-        <v>1840893.291331122</v>
+        <v>2150695.650229976</v>
       </c>
       <c r="L3" t="n">
-        <v>1693854.060095761</v>
+        <v>2030432.138474762</v>
       </c>
       <c r="M3" t="n">
-        <v>1569813.773880646</v>
+        <v>1931016.371352545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1004043.837783508</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1005203.674860429</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1006360.408537964</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1007514.011352457</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1008664.456152647</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1009811.716097651</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1010955.764654962</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1012096.575598409</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1013234.123006205</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1014368.381258918</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1015499.32503752</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1016626.929321433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>13628948.99372661</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>13584890.90942647</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>13524094.82629462</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>13446729.47431418</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>13353040.64857085</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13243348.95291298</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>13118046.94022353</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12977595.69015252</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>12822520.8710496</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>12653408.33791734</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>12470899.32242104</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>12275685.27430052</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4190619.479855239</v>
+        <v>3559196.996261423</v>
       </c>
       <c r="C6" t="n">
-        <v>4190061.043504631</v>
+        <v>3552702.8806544</v>
       </c>
       <c r="D6" t="n">
-        <v>4190611.929701244</v>
+        <v>3546220.614219413</v>
       </c>
       <c r="E6" t="n">
-        <v>4191629.422804869</v>
+        <v>3539750.175336444</v>
       </c>
       <c r="F6" t="n">
-        <v>4191926.196799514</v>
+        <v>3533291.542424932</v>
       </c>
       <c r="G6" t="n">
-        <v>4191155.896130765</v>
+        <v>3526844.693943679</v>
       </c>
       <c r="H6" t="n">
-        <v>4190217.476677624</v>
+        <v>3520409.608390803</v>
       </c>
       <c r="I6" t="n">
-        <v>4190205.875000624</v>
+        <v>3513986.264303645</v>
       </c>
       <c r="J6" t="n">
-        <v>4191134.631801764</v>
+        <v>3507574.640258712</v>
       </c>
       <c r="K6" t="n">
-        <v>4191920.081809762</v>
+        <v>3501174.714871603</v>
       </c>
       <c r="L6" t="n">
-        <v>4191645.590837009</v>
+        <v>3494786.466796925</v>
       </c>
       <c r="M6" t="n">
-        <v>4190631.517834628</v>
+        <v>3488409.874728242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1661194.929611866</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="C7" t="n">
-        <v>1606288.3968547</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="D7" t="n">
-        <v>1713147.013504487</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="E7" t="n">
-        <v>1574620.922757441</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="F7" t="n">
-        <v>1742634.588679267</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="G7" t="n">
-        <v>1557839.09914449</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="H7" t="n">
-        <v>1737372.865912948</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="I7" t="n">
-        <v>1563486.382413071</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="J7" t="n">
-        <v>1704234.036387025</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="K7" t="n">
-        <v>1593685.322761059</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="L7" t="n">
-        <v>1660522.908409074</v>
+        <v>1870159.430494112</v>
       </c>
       <c r="M7" t="n">
-        <v>1642955.766092347</v>
+        <v>1870159.430494112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>757017.4771641537</v>
+        <v>16230308.19485221</v>
       </c>
       <c r="C8" t="n">
-        <v>757017.2606233258</v>
+        <v>19126273.04100819</v>
       </c>
       <c r="D8" t="n">
-        <v>757017.4900451538</v>
+        <v>18066209.47560059</v>
       </c>
       <c r="E8" t="n">
-        <v>757017.4909801779</v>
+        <v>11920598.97495861</v>
       </c>
       <c r="F8" t="n">
-        <v>757017.5457891176</v>
+        <v>10562586.35153745</v>
       </c>
       <c r="G8" t="n">
-        <v>757017.5831999185</v>
+        <v>12851648.23463919</v>
       </c>
       <c r="H8" t="n">
-        <v>757017.6776571242</v>
+        <v>13857341.20339953</v>
       </c>
       <c r="I8" t="n">
-        <v>757017.6590587012</v>
+        <v>18156478.47397665</v>
       </c>
       <c r="J8" t="n">
-        <v>757017.646770197</v>
+        <v>14772801.24121905</v>
       </c>
       <c r="K8" t="n">
-        <v>757017.6866844427</v>
+        <v>16152231.51721291</v>
       </c>
       <c r="L8" t="n">
-        <v>757017.6625895561</v>
+        <v>12701021.26871291</v>
       </c>
       <c r="M8" t="n">
-        <v>757017.5437936558</v>
+        <v>12216730.02338487</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1720341.579348532</v>
+        <v>18249704.23320062</v>
       </c>
       <c r="C9" t="n">
-        <v>1257991.273920908</v>
+        <v>18013750.95614785</v>
       </c>
       <c r="D9" t="n">
-        <v>941787.6140405112</v>
+        <v>17862421.57778092</v>
       </c>
       <c r="E9" t="n">
-        <v>754884.1632203697</v>
+        <v>17883944.76366667</v>
       </c>
       <c r="F9" t="n">
-        <v>653143.1385420647</v>
+        <v>18047445.89628644</v>
       </c>
       <c r="G9" t="n">
-        <v>599973.0310583808</v>
+        <v>18221573.97426201</v>
       </c>
       <c r="H9" t="n">
-        <v>572204.7886828277</v>
+        <v>18265401.65155087</v>
       </c>
       <c r="I9" t="n">
-        <v>556974.2102113729</v>
+        <v>18130997.56965445</v>
       </c>
       <c r="J9" t="n">
-        <v>547685.5212583919</v>
+        <v>17897483.35984135</v>
       </c>
       <c r="K9" t="n">
-        <v>541134.6483122529</v>
+        <v>17711781.80769905</v>
       </c>
       <c r="L9" t="n">
-        <v>535824.9305555206</v>
+        <v>17686115.13384235</v>
       </c>
       <c r="M9" t="n">
-        <v>531077.754009462</v>
+        <v>17822513.20542783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2973297.538595585</v>
+        <v>3657883.334904176</v>
       </c>
       <c r="C10" t="n">
-        <v>2973042.797335919</v>
+        <v>3557843.900290257</v>
       </c>
       <c r="D10" t="n">
-        <v>2972760.647956564</v>
+        <v>3414676.456798259</v>
       </c>
       <c r="E10" t="n">
-        <v>2972454.834568439</v>
+        <v>3233866.873327796</v>
       </c>
       <c r="F10" t="n">
-        <v>2972129.415101081</v>
+        <v>3022128.646670582</v>
       </c>
       <c r="G10" t="n">
-        <v>2971788.707410767</v>
+        <v>2786980.850009493</v>
       </c>
       <c r="H10" t="n">
-        <v>2971437.231948921</v>
+        <v>2536299.786611085</v>
       </c>
       <c r="I10" t="n">
-        <v>2971079.651754142</v>
+        <v>2277881.626318092</v>
       </c>
       <c r="J10" t="n">
-        <v>2970720.710566116</v>
+        <v>2019049.288803398</v>
       </c>
       <c r="K10" t="n">
-        <v>2970365.169883861</v>
+        <v>1766329.714305043</v>
       </c>
       <c r="L10" t="n">
-        <v>2970017.745803975</v>
+        <v>1525218.562189976</v>
       </c>
       <c r="M10" t="n">
-        <v>2969683.04647669</v>
+        <v>1300039.56827946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2321620.083768676</v>
+        <v>3116720.033601969</v>
       </c>
       <c r="C11" t="n">
-        <v>2322459.938660798</v>
+        <v>3116610.167741969</v>
       </c>
       <c r="D11" t="n">
-        <v>2315566.591365653</v>
+        <v>3116500.263302371</v>
       </c>
       <c r="E11" t="n">
-        <v>2312767.810464898</v>
+        <v>3116390.32023564</v>
       </c>
       <c r="F11" t="n">
-        <v>2313443.583751421</v>
+        <v>3116280.338494211</v>
       </c>
       <c r="G11" t="n">
-        <v>2306413.202437852</v>
+        <v>3116170.318030894</v>
       </c>
       <c r="H11" t="n">
-        <v>2303963.488733707</v>
+        <v>3116060.258798212</v>
       </c>
       <c r="I11" t="n">
-        <v>2304453.960303952</v>
+        <v>3115950.160749048</v>
       </c>
       <c r="J11" t="n">
-        <v>2297309.72548656</v>
+        <v>3115840.023836195</v>
       </c>
       <c r="K11" t="n">
-        <v>2295205.918113581</v>
+        <v>3115729.848012581</v>
       </c>
       <c r="L11" t="n">
-        <v>2295491.014446986</v>
+        <v>3115619.633231148</v>
       </c>
       <c r="M11" t="n">
-        <v>2288256.840377594</v>
+        <v>3115509.379444882</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>780167.9771766064</v>
+        <v>31127437.99266689</v>
       </c>
       <c r="C12" t="n">
-        <v>771445.7790277652</v>
+        <v>31127388.27209411</v>
       </c>
       <c r="D12" t="n">
-        <v>762821.094161669</v>
+        <v>31127338.35125651</v>
       </c>
       <c r="E12" t="n">
-        <v>754292.8323897966</v>
+        <v>31127288.22888134</v>
       </c>
       <c r="F12" t="n">
-        <v>745859.9157118222</v>
+        <v>31127237.90423632</v>
       </c>
       <c r="G12" t="n">
-        <v>737521.2781793503</v>
+        <v>31127187.37713176</v>
       </c>
       <c r="H12" t="n">
-        <v>729275.8657611848</v>
+        <v>31127136.64792098</v>
       </c>
       <c r="I12" t="n">
-        <v>721122.6362100861</v>
+        <v>31127085.71749943</v>
       </c>
       <c r="J12" t="n">
-        <v>713060.5589310345</v>
+        <v>31127034.58730222</v>
       </c>
       <c r="K12" t="n">
-        <v>705088.6148509553</v>
+        <v>31126983.25930029</v>
       </c>
       <c r="L12" t="n">
-        <v>697205.7962899092</v>
+        <v>31126931.73599517</v>
       </c>
       <c r="M12" t="n">
-        <v>689411.1068337113</v>
+        <v>31126880.02041226</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>34402949.20962118</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>34394108.98884936</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>34385273.66439886</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>34376443.2335578</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>34367617.6936157</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>34358797.04186363</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>34349981.27559414</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>34341170.39210133</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34332364.38868071</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>34323563.26262937</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>34314767.01124587</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>34305975.63183025</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>807887.545110922</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>359288.0803042875</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>248394.8977137189</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>228181.3511158939</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>224441.2194363222</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>223198.7774054417</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>222299.3928368243</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>221446.4272298826</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>220601.9124179865</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>219761.2220712757</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>218923.8039383781</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>218089.5844378525</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>405564.972095261</v>
+        <v>1404267.462677</v>
       </c>
       <c r="C15" t="n">
-        <v>371576.8888031604</v>
+        <v>1404247.962753443</v>
       </c>
       <c r="D15" t="n">
-        <v>340437.1525956287</v>
+        <v>1404228.463100665</v>
       </c>
       <c r="E15" t="n">
-        <v>311907.0597763011</v>
+        <v>1404208.963718666</v>
       </c>
       <c r="F15" t="n">
-        <v>285767.9110418758</v>
+        <v>1404189.464607436</v>
       </c>
       <c r="G15" t="n">
-        <v>261819.3350282167</v>
+        <v>1404169.965766978</v>
       </c>
       <c r="H15" t="n">
-        <v>239877.7523504818</v>
+        <v>1404150.467197282</v>
       </c>
       <c r="I15" t="n">
-        <v>219774.9683632714</v>
+        <v>1404130.968898344</v>
       </c>
       <c r="J15" t="n">
-        <v>201356.8838535098</v>
+        <v>1404111.470870167</v>
       </c>
       <c r="K15" t="n">
-        <v>184482.3137827902</v>
+        <v>1404091.973112744</v>
       </c>
       <c r="L15" t="n">
-        <v>169021.9050241755</v>
+        <v>1404072.475626068</v>
       </c>
       <c r="M15" t="n">
-        <v>154857.1447972942</v>
+        <v>1404052.978410138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99490.06938549786</v>
+        <v>9044342.073453093</v>
       </c>
       <c r="C16" t="n">
-        <v>99490.06938549786</v>
+        <v>8780144.196140273</v>
       </c>
       <c r="D16" t="n">
-        <v>99490.06938549786</v>
+        <v>8526551.445362145</v>
       </c>
       <c r="E16" t="n">
-        <v>99490.06938549786</v>
+        <v>8282893.706183087</v>
       </c>
       <c r="F16" t="n">
-        <v>99490.06938549786</v>
+        <v>8048588.477386384</v>
       </c>
       <c r="G16" t="n">
-        <v>99490.06938549786</v>
+        <v>7823183.902056701</v>
       </c>
       <c r="H16" t="n">
-        <v>99490.06938549786</v>
+        <v>7606372.870675413</v>
       </c>
       <c r="I16" t="n">
-        <v>99490.06938549786</v>
+        <v>7397974.405070589</v>
       </c>
       <c r="J16" t="n">
-        <v>99490.06938549786</v>
+        <v>7197887.056353489</v>
       </c>
       <c r="K16" t="n">
-        <v>99490.06938549786</v>
+        <v>7006026.185472082</v>
       </c>
       <c r="L16" t="n">
-        <v>99490.06938549786</v>
+        <v>6822260.862360507</v>
       </c>
       <c r="M16" t="n">
-        <v>99490.06938549786</v>
+        <v>6646365.928372456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3462010.08605384</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3343135.013400972</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3212986.73713157</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3074016.830555045</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2928606.046435549</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2778984.868365447</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2627184.331625425</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2475009.337611999</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2324028.380467033</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2175574.962812145</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2030757.062243127</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1890471.873027911</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>906252.9378091288</v>
+        <v>1437444.533639242</v>
       </c>
       <c r="C18" t="n">
-        <v>906252.9498207585</v>
+        <v>1584236.326453005</v>
       </c>
       <c r="D18" t="n">
-        <v>906252.2040266222</v>
+        <v>1336855.475887261</v>
       </c>
       <c r="E18" t="n">
-        <v>906253.0045182621</v>
+        <v>1401074.982047166</v>
       </c>
       <c r="F18" t="n">
-        <v>906252.5485607415</v>
+        <v>1252302.969210338</v>
       </c>
       <c r="G18" t="n">
-        <v>906252.7014001824</v>
+        <v>1383118.592373336</v>
       </c>
       <c r="H18" t="n">
-        <v>906253.0332344457</v>
+        <v>1177975.376910721</v>
       </c>
       <c r="I18" t="n">
-        <v>906252.6116515431</v>
+        <v>1288008.970150442</v>
       </c>
       <c r="J18" t="n">
-        <v>906252.8423623405</v>
+        <v>1150507.550429781</v>
       </c>
       <c r="K18" t="n">
-        <v>906253.0333024962</v>
+        <v>1289186.492701712</v>
       </c>
       <c r="L18" t="n">
-        <v>906252.5255564728</v>
+        <v>1119792.679141993</v>
       </c>
       <c r="M18" t="n">
-        <v>906252.9047880811</v>
+        <v>1254041.42326771</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101489.6535391817</v>
+        <v>4744417.435272837</v>
       </c>
       <c r="C19" t="n">
-        <v>150142.0339930629</v>
+        <v>4744870.213987713</v>
       </c>
       <c r="D19" t="n">
-        <v>169156.9672893834</v>
+        <v>4745508.40438923</v>
       </c>
       <c r="E19" t="n">
-        <v>175517.1707380626</v>
+        <v>4745545.975258154</v>
       </c>
       <c r="F19" t="n">
-        <v>171219.6281552356</v>
+        <v>4744754.062815667</v>
       </c>
       <c r="G19" t="n">
-        <v>158875.4248718946</v>
+        <v>4744517.634897491</v>
       </c>
       <c r="H19" t="n">
-        <v>146307.1069502126</v>
+        <v>4744887.297417601</v>
       </c>
       <c r="I19" t="n">
-        <v>141533.455016341</v>
+        <v>4745675.647356795</v>
       </c>
       <c r="J19" t="n">
-        <v>147124.7553825414</v>
+        <v>4745557.226702242</v>
       </c>
       <c r="K19" t="n">
-        <v>158993.5467664547</v>
+        <v>4744857.573665801</v>
       </c>
       <c r="L19" t="n">
-        <v>170511.4577101561</v>
+        <v>4744403.560705807</v>
       </c>
       <c r="M19" t="n">
-        <v>178293.1373522294</v>
+        <v>4744893.357478359</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2198399.306262449</v>
+        <v>2429358.552102385</v>
       </c>
       <c r="C20" t="n">
-        <v>2198540.012113935</v>
+        <v>2396251.165017244</v>
       </c>
       <c r="D20" t="n">
-        <v>2198411.997626499</v>
+        <v>2364436.746437205</v>
       </c>
       <c r="E20" t="n">
-        <v>2198435.783356793</v>
+        <v>2335460.163033788</v>
       </c>
       <c r="F20" t="n">
-        <v>2198533.233613288</v>
+        <v>2309440.483131361</v>
       </c>
       <c r="G20" t="n">
-        <v>2198384.230469369</v>
+        <v>2286949.477595979</v>
       </c>
       <c r="H20" t="n">
-        <v>2198478.243728885</v>
+        <v>2264864.728556581</v>
       </c>
       <c r="I20" t="n">
-        <v>2198506.440091371</v>
+        <v>2245243.83997893</v>
       </c>
       <c r="J20" t="n">
-        <v>2198376.19710343</v>
+        <v>2228295.144325735</v>
       </c>
       <c r="K20" t="n">
-        <v>2198515.360966516</v>
+        <v>2212791.52854137</v>
       </c>
       <c r="L20" t="n">
-        <v>2198466.780425597</v>
+        <v>2198838.817560745</v>
       </c>
       <c r="M20" t="n">
-        <v>2198390.039662326</v>
+        <v>2185152.693845665</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>902346.5740023488</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="C21" t="n">
-        <v>909276.2830724625</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="D21" t="n">
-        <v>910100.3683102536</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="E21" t="n">
-        <v>902793.2366064591</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="F21" t="n">
-        <v>905267.5787360601</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="G21" t="n">
-        <v>911455.2714246184</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="H21" t="n">
-        <v>906195.0436238085</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="I21" t="n">
-        <v>902378.0855206184</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="J21" t="n">
-        <v>909355.0076120147</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="K21" t="n">
-        <v>910033.4296962162</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="L21" t="n">
-        <v>902744.6847218195</v>
+        <v>2636828.533030219</v>
       </c>
       <c r="M21" t="n">
-        <v>905356.3291739919</v>
+        <v>2636828.533030219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>543884.6126440697</v>
+        <v>9476061.091426244</v>
       </c>
       <c r="C22" t="n">
-        <v>543921.1282933876</v>
+        <v>9437413.748135492</v>
       </c>
       <c r="D22" t="n">
-        <v>543957.4891622872</v>
+        <v>9413580.688535973</v>
       </c>
       <c r="E22" t="n">
-        <v>543993.6951664184</v>
+        <v>9375754.124924481</v>
       </c>
       <c r="F22" t="n">
-        <v>544029.7462220273</v>
+        <v>9351792.916875217</v>
       </c>
       <c r="G22" t="n">
-        <v>544065.6422459432</v>
+        <v>9314805.015270054</v>
       </c>
       <c r="H22" t="n">
-        <v>544101.383155599</v>
+        <v>9290690.580627562</v>
       </c>
       <c r="I22" t="n">
-        <v>544136.9688690108</v>
+        <v>9254557.730772443</v>
       </c>
       <c r="J22" t="n">
-        <v>544172.3993047775</v>
+        <v>9230266.606526896</v>
       </c>
       <c r="K22" t="n">
-        <v>544207.6743820931</v>
+        <v>9195003.641230088</v>
       </c>
       <c r="L22" t="n">
-        <v>544242.7940207322</v>
+        <v>9170514.040349865</v>
       </c>
       <c r="M22" t="n">
-        <v>544277.7581410522</v>
+        <v>9136134.176165806</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6825813.785933882</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6794532.993932456</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6741250.364390293</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6703981.95810367</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6681391.008373939</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6635951.792842792</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6580788.185438341</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6549424.658372282</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6518378.66898636</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6461556.433256217</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6410691.237673733</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6382091.888338845</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7845485.893392934</v>
+        <v>5504862.114691702</v>
       </c>
       <c r="C24" t="n">
-        <v>7845539.279843863</v>
+        <v>5504855.032897388</v>
       </c>
       <c r="D24" t="n">
-        <v>7845593.212995781</v>
+        <v>5504848.098733745</v>
       </c>
       <c r="E24" t="n">
-        <v>7845647.414681294</v>
+        <v>5504841.442564624</v>
       </c>
       <c r="F24" t="n">
-        <v>7845701.605511598</v>
+        <v>5504835.189527512</v>
       </c>
       <c r="G24" t="n">
-        <v>7845755.506313246</v>
+        <v>5504829.457180909</v>
       </c>
       <c r="H24" t="n">
-        <v>7845808.839560512</v>
+        <v>5504824.353294161</v>
       </c>
       <c r="I24" t="n">
-        <v>7845861.330796163</v>
+        <v>5504819.973821393</v>
       </c>
       <c r="J24" t="n">
-        <v>7845912.710033449</v>
+        <v>5504816.401097532</v>
       </c>
       <c r="K24" t="n">
-        <v>7845962.71313247</v>
+        <v>5504813.702290377</v>
       </c>
       <c r="L24" t="n">
-        <v>7846011.083144075</v>
+        <v>5504811.928137843</v>
       </c>
       <c r="M24" t="n">
-        <v>7846057.57161478</v>
+        <v>5504811.1119941</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2674877.588079185</v>
+        <v>3814490.167540162</v>
       </c>
       <c r="C25" t="n">
-        <v>2668614.355737901</v>
+        <v>3814490.16699164</v>
       </c>
       <c r="D25" t="n">
-        <v>2662394.261626443</v>
+        <v>3814490.166406614</v>
       </c>
       <c r="E25" t="n">
-        <v>2656218.101835199</v>
+        <v>3814490.165785148</v>
       </c>
       <c r="F25" t="n">
-        <v>2650083.607230051</v>
+        <v>3814490.165127307</v>
       </c>
       <c r="G25" t="n">
-        <v>2643985.821146144</v>
+        <v>3814490.164433163</v>
       </c>
       <c r="H25" t="n">
-        <v>2637917.94788581</v>
+        <v>3814490.163702789</v>
       </c>
       <c r="I25" t="n">
-        <v>2631872.523441721</v>
+        <v>3814490.162936265</v>
       </c>
       <c r="J25" t="n">
-        <v>2625842.703404105</v>
+        <v>3814490.162133672</v>
       </c>
       <c r="K25" t="n">
-        <v>2619823.442454798</v>
+        <v>3814490.161295097</v>
       </c>
       <c r="L25" t="n">
-        <v>2613812.358821672</v>
+        <v>3814490.160420629</v>
       </c>
       <c r="M25" t="n">
-        <v>2607810.132254335</v>
+        <v>3814490.159510364</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4840397.10886275</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="C26" t="n">
-        <v>4840397.112189096</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="D26" t="n">
-        <v>4840397.11549604</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="E26" t="n">
-        <v>4840397.11878358</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="F26" t="n">
-        <v>4840397.122051714</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="G26" t="n">
-        <v>4840397.125300447</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="H26" t="n">
-        <v>4840397.128529768</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="I26" t="n">
-        <v>4840397.131739693</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="J26" t="n">
-        <v>4840397.134930206</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="K26" t="n">
-        <v>4840397.138101314</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="L26" t="n">
-        <v>4840397.141253016</v>
+        <v>7481119.471625103</v>
       </c>
       <c r="M26" t="n">
-        <v>4840397.144385315</v>
+        <v>7481119.471625103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10807626.74990284</v>
+        <v>3405600.487542849</v>
       </c>
       <c r="C27" t="n">
-        <v>11094350.52696095</v>
+        <v>3403884.096157448</v>
       </c>
       <c r="D27" t="n">
-        <v>10768219.68123484</v>
+        <v>3402174.651983662</v>
       </c>
       <c r="E27" t="n">
-        <v>10988688.43408391</v>
+        <v>3400463.362333048</v>
       </c>
       <c r="F27" t="n">
-        <v>10729952.98824641</v>
+        <v>3398749.915342966</v>
       </c>
       <c r="G27" t="n">
-        <v>10882127.26787653</v>
+        <v>3397043.252831986</v>
       </c>
       <c r="H27" t="n">
-        <v>10692680.8312739</v>
+        <v>3395339.305888999</v>
       </c>
       <c r="I27" t="n">
-        <v>10775089.71816482</v>
+        <v>3393631.120977746</v>
       </c>
       <c r="J27" t="n">
-        <v>10656265.09777626</v>
+        <v>3391926.167403592</v>
       </c>
       <c r="K27" t="n">
-        <v>10668016.37444278</v>
+        <v>3390227.738794493</v>
       </c>
       <c r="L27" t="n">
-        <v>10620572.75645109</v>
+        <v>3388526.749986382</v>
       </c>
       <c r="M27" t="n">
-        <v>10561358.19394938</v>
+        <v>3386824.35125874</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10013247.44140314</v>
+        <v>7539600.419853639</v>
       </c>
       <c r="C28" t="n">
-        <v>7177240.308446221</v>
+        <v>7539600.178429837</v>
       </c>
       <c r="D28" t="n">
-        <v>4883740.502666691</v>
+        <v>7539599.586320698</v>
       </c>
       <c r="E28" t="n">
-        <v>3373043.179367997</v>
+        <v>7539598.645177064</v>
       </c>
       <c r="F28" t="n">
-        <v>2486835.424564987</v>
+        <v>7539597.357622837</v>
       </c>
       <c r="G28" t="n">
-        <v>2004392.303556003</v>
+        <v>7539595.727247654</v>
       </c>
       <c r="H28" t="n">
-        <v>1755126.238619857</v>
+        <v>7539593.758596877</v>
       </c>
       <c r="I28" t="n">
-        <v>1631216.504101217</v>
+        <v>7539591.45715894</v>
       </c>
       <c r="J28" t="n">
-        <v>1571425.144041803</v>
+        <v>7539588.82935001</v>
       </c>
       <c r="K28" t="n">
-        <v>1543246.021631245</v>
+        <v>7539585.882496141</v>
       </c>
       <c r="L28" t="n">
-        <v>1530217.688973295</v>
+        <v>7539582.624812797</v>
       </c>
       <c r="M28" t="n">
-        <v>1524289.153781328</v>
+        <v>7539579.065382006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12038984.5559733</v>
+        <v>1013378.206413276</v>
       </c>
       <c r="C29" t="n">
-        <v>11516573.8643394</v>
+        <v>1012847.960215366</v>
       </c>
       <c r="D29" t="n">
-        <v>10813352.97910245</v>
+        <v>1012318.124671321</v>
       </c>
       <c r="E29" t="n">
-        <v>10025625.08299955</v>
+        <v>1011788.699463075</v>
       </c>
       <c r="F29" t="n">
-        <v>9229339.450375471</v>
+        <v>1011259.684272872</v>
       </c>
       <c r="G29" t="n">
-        <v>8475355.780855026</v>
+        <v>1010731.078783168</v>
       </c>
       <c r="H29" t="n">
-        <v>7792678.451039462</v>
+        <v>1010202.882676652</v>
       </c>
       <c r="I29" t="n">
-        <v>7193836.215701194</v>
+        <v>1009675.095636288</v>
       </c>
       <c r="J29" t="n">
-        <v>6680329.358191559</v>
+        <v>1009147.717345249</v>
       </c>
       <c r="K29" t="n">
-        <v>6246930.956648888</v>
+        <v>1008620.747487001</v>
       </c>
       <c r="L29" t="n">
-        <v>5884831.327876447</v>
+        <v>1008094.185745209</v>
       </c>
       <c r="M29" t="n">
-        <v>5583957.518303626</v>
+        <v>1007568.03180383</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33358934.88806031</v>
+        <v>549133.7820155643</v>
       </c>
       <c r="C30" t="n">
-        <v>33311186.13756509</v>
+        <v>531592.6009715752</v>
       </c>
       <c r="D30" t="n">
-        <v>33262597.27418743</v>
+        <v>514611.7442829532</v>
       </c>
       <c r="E30" t="n">
-        <v>33213166.52303433</v>
+        <v>498173.3133040803</v>
       </c>
       <c r="F30" t="n">
-        <v>33162892.66003856</v>
+        <v>482259.9811323163</v>
       </c>
       <c r="G30" t="n">
-        <v>33111774.99339501</v>
+        <v>466854.9743446026</v>
       </c>
       <c r="H30" t="n">
-        <v>33059813.34544478</v>
+        <v>451942.0553174621</v>
       </c>
       <c r="I30" t="n">
-        <v>33007008.03499787</v>
+        <v>437505.5051117576</v>
       </c>
       <c r="J30" t="n">
-        <v>32953359.8600857</v>
+        <v>423530.1069041681</v>
       </c>
       <c r="K30" t="n">
-        <v>32898870.08113397</v>
+        <v>410001.1299479199</v>
       </c>
       <c r="L30" t="n">
-        <v>32843540.4045477</v>
+        <v>396904.3140458658</v>
       </c>
       <c r="M30" t="n">
-        <v>32787372.96669961</v>
+        <v>384225.8545195468</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33316377.56333968</v>
+        <v>514514.1572105467</v>
       </c>
       <c r="C31" t="n">
-        <v>33181454.4938277</v>
+        <v>501641.3421067073</v>
       </c>
       <c r="D31" t="n">
-        <v>33080906.06985579</v>
+        <v>491919.2942347248</v>
       </c>
       <c r="E31" t="n">
-        <v>33029274.69476868</v>
+        <v>484371.9696101328</v>
       </c>
       <c r="F31" t="n">
-        <v>33033149.67750274</v>
+        <v>478356.3491727306</v>
       </c>
       <c r="G31" t="n">
-        <v>33091303.02295826</v>
+        <v>473503.8831218841</v>
       </c>
       <c r="H31" t="n">
-        <v>33195265.8089274</v>
+        <v>469455.6058702838</v>
       </c>
       <c r="I31" t="n">
-        <v>33330011.90167409</v>
+        <v>466303.0376098209</v>
       </c>
       <c r="J31" t="n">
-        <v>33475086.36805307</v>
+        <v>464179.6842952079</v>
       </c>
       <c r="K31" t="n">
-        <v>33606848.52565081</v>
+        <v>462467.0106410347</v>
       </c>
       <c r="L31" t="n">
-        <v>33702179.21460475</v>
+        <v>461591.6513148411</v>
       </c>
       <c r="M31" t="n">
-        <v>33743164.93654943</v>
+        <v>460297.8133691198</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>847302.1231881157</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>847302.1236846759</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>847302.1242087875</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>847302.1247266019</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>847302.1252185358</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>847302.1257314929</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>847302.1262537995</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>847302.1267463276</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>847302.1272468385</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>847302.127769284</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>847302.128266606</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>847302.1287562228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2283320.53403255</v>
+        <v>1316480.600803906</v>
       </c>
       <c r="C33" t="n">
-        <v>2282307.885642005</v>
+        <v>1104497.592988809</v>
       </c>
       <c r="D33" t="n">
-        <v>2279693.785052836</v>
+        <v>896453.2242442352</v>
       </c>
       <c r="E33" t="n">
-        <v>2274462.462668184</v>
+        <v>707757.9563778618</v>
       </c>
       <c r="F33" t="n">
-        <v>2274914.16321552</v>
+        <v>546065.1768377058</v>
       </c>
       <c r="G33" t="n">
-        <v>2269164.435752288</v>
+        <v>413265.2473532537</v>
       </c>
       <c r="H33" t="n">
-        <v>2267391.362218421</v>
+        <v>307705.0640662458</v>
       </c>
       <c r="I33" t="n">
-        <v>2265655.764469117</v>
+        <v>225943.861074862</v>
       </c>
       <c r="J33" t="n">
-        <v>2259899.04167697</v>
+        <v>163932.4078490315</v>
       </c>
       <c r="K33" t="n">
-        <v>2260369.275786212</v>
+        <v>117709.1051152239</v>
       </c>
       <c r="L33" t="n">
-        <v>2255197.969114892</v>
+        <v>83752.45165833732</v>
       </c>
       <c r="M33" t="n">
-        <v>2252589.018658683</v>
+        <v>59114.38042920099</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7002174.372736623</v>
+        <v>2341440.698977855</v>
       </c>
       <c r="C34" t="n">
-        <v>6108761.062315201</v>
+        <v>2336982.353448948</v>
       </c>
       <c r="D34" t="n">
-        <v>5516014.92065745</v>
+        <v>2323493.112402217</v>
       </c>
       <c r="E34" t="n">
-        <v>5238669.648938344</v>
+        <v>2301842.615628599</v>
       </c>
       <c r="F34" t="n">
-        <v>5141486.908983085</v>
+        <v>2273751.697572981</v>
       </c>
       <c r="G34" t="n">
-        <v>5110226.547389767</v>
+        <v>2241629.050082149</v>
       </c>
       <c r="H34" t="n">
-        <v>5095219.737528116</v>
+        <v>2208331.905590795</v>
       </c>
       <c r="I34" t="n">
-        <v>5082991.372101087</v>
+        <v>2176870.223029678</v>
       </c>
       <c r="J34" t="n">
-        <v>5071115.758143979</v>
+        <v>2150083.642806642</v>
       </c>
       <c r="K34" t="n">
-        <v>5059294.744645702</v>
+        <v>2130327.909648436</v>
       </c>
       <c r="L34" t="n">
-        <v>5047502.860922922</v>
+        <v>2119209.896198224</v>
       </c>
       <c r="M34" t="n">
-        <v>5035738.526376593</v>
+        <v>2117406.157655185</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1741301.257920889</v>
+        <v>1277399.468463663</v>
       </c>
       <c r="C35" t="n">
-        <v>1741301.260080535</v>
+        <v>1225190.030256157</v>
       </c>
       <c r="D35" t="n">
-        <v>1741301.262236523</v>
+        <v>1172676.466395694</v>
       </c>
       <c r="E35" t="n">
-        <v>1741301.264388861</v>
+        <v>1120681.591483454</v>
       </c>
       <c r="F35" t="n">
-        <v>1741301.26653754</v>
+        <v>1069918.950979841</v>
       </c>
       <c r="G35" t="n">
-        <v>1741301.268682567</v>
+        <v>1020987.462638037</v>
       </c>
       <c r="H35" t="n">
-        <v>1741301.270823935</v>
+        <v>974370.5276804091</v>
       </c>
       <c r="I35" t="n">
-        <v>1741301.272961663</v>
+        <v>930439.0286136352</v>
       </c>
       <c r="J35" t="n">
-        <v>1741301.275095724</v>
+        <v>889457.5383405668</v>
       </c>
       <c r="K35" t="n">
-        <v>1741301.277226133</v>
+        <v>851593.0217929624</v>
       </c>
       <c r="L35" t="n">
-        <v>1741301.279352892</v>
+        <v>816925.311697132</v>
       </c>
       <c r="M35" t="n">
-        <v>1741301.281475978</v>
+        <v>785458.6772403119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2408844.302493067</v>
+        <v>1239278.636495037</v>
       </c>
       <c r="C36" t="n">
-        <v>3127720.201283156</v>
+        <v>1228929.065724449</v>
       </c>
       <c r="D36" t="n">
-        <v>2581222.016693272</v>
+        <v>1218742.937660383</v>
       </c>
       <c r="E36" t="n">
-        <v>3358284.612514878</v>
+        <v>1208730.288459321</v>
       </c>
       <c r="F36" t="n">
-        <v>3131595.662477755</v>
+        <v>1198900.526266604</v>
       </c>
       <c r="G36" t="n">
-        <v>2768656.714401189</v>
+        <v>1189262.158228419</v>
       </c>
       <c r="H36" t="n">
-        <v>3325657.526467633</v>
+        <v>1179822.540297055</v>
       </c>
       <c r="I36" t="n">
-        <v>2913845.370543555</v>
+        <v>1170587.655681269</v>
       </c>
       <c r="J36" t="n">
-        <v>2441979.139445954</v>
+        <v>1161561.927033256</v>
       </c>
       <c r="K36" t="n">
-        <v>2674736.853820707</v>
+        <v>1152748.066592073</v>
       </c>
       <c r="L36" t="n">
-        <v>3123551.100627718</v>
+        <v>1144146.967548861</v>
       </c>
       <c r="M36" t="n">
-        <v>2803501.914443166</v>
+        <v>1135757.638890901</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4771324.703809874</v>
+        <v>3634376.661262446</v>
       </c>
       <c r="C37" t="n">
-        <v>4771324.703809354</v>
+        <v>3614698.296704737</v>
       </c>
       <c r="D37" t="n">
-        <v>4771324.703808819</v>
+        <v>3595215.425119922</v>
       </c>
       <c r="E37" t="n">
-        <v>4771324.703808265</v>
+        <v>3575926.147596166</v>
       </c>
       <c r="F37" t="n">
-        <v>4771324.703807696</v>
+        <v>3556828.581089761</v>
       </c>
       <c r="G37" t="n">
-        <v>4771324.703807109</v>
+        <v>3537920.857730178</v>
       </c>
       <c r="H37" t="n">
-        <v>4771324.703806505</v>
+        <v>3519201.124181135</v>
       </c>
       <c r="I37" t="n">
-        <v>4771324.703805882</v>
+        <v>3500667.541063904</v>
       </c>
       <c r="J37" t="n">
-        <v>4771324.703805244</v>
+        <v>3482318.282448268</v>
       </c>
       <c r="K37" t="n">
-        <v>4771324.703804588</v>
+        <v>3464151.535415648</v>
       </c>
       <c r="L37" t="n">
-        <v>4771324.703803916</v>
+        <v>3446165.499697918</v>
       </c>
       <c r="M37" t="n">
-        <v>4771324.703803225</v>
+        <v>3428358.387394381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2704329.0075232</v>
+        <v>2503842.073570258</v>
       </c>
       <c r="C38" t="n">
-        <v>2704328.630917382</v>
+        <v>2503842.118283493</v>
       </c>
       <c r="D38" t="n">
-        <v>2704328.238031462</v>
+        <v>2503842.162125421</v>
       </c>
       <c r="E38" t="n">
-        <v>2704327.831735674</v>
+        <v>2503842.205096044</v>
       </c>
       <c r="F38" t="n">
-        <v>2704327.414998229</v>
+        <v>2503842.247195361</v>
       </c>
       <c r="G38" t="n">
-        <v>2704326.990863607</v>
+        <v>2503842.288423374</v>
       </c>
       <c r="H38" t="n">
-        <v>2704326.562430338</v>
+        <v>2503842.32878008</v>
       </c>
       <c r="I38" t="n">
-        <v>2704326.132828348</v>
+        <v>2503842.368265481</v>
       </c>
       <c r="J38" t="n">
-        <v>2704325.705196105</v>
+        <v>2503842.406879575</v>
       </c>
       <c r="K38" t="n">
-        <v>2704325.282657686</v>
+        <v>2503842.444622364</v>
       </c>
       <c r="L38" t="n">
-        <v>2704324.868299954</v>
+        <v>2503842.481493846</v>
       </c>
       <c r="M38" t="n">
-        <v>2704324.465150011</v>
+        <v>2503842.51749402</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2949096.237075073</v>
+        <v>4934697.715865279</v>
       </c>
       <c r="C39" t="n">
-        <v>2931623.712355549</v>
+        <v>4858332.269760318</v>
       </c>
       <c r="D39" t="n">
-        <v>2924901.287388526</v>
+        <v>4783940.204191647</v>
       </c>
       <c r="E39" t="n">
-        <v>2909309.461464448</v>
+        <v>4711413.542136559</v>
       </c>
       <c r="F39" t="n">
-        <v>2900908.65699145</v>
+        <v>4640843.394986384</v>
       </c>
       <c r="G39" t="n">
-        <v>2887547.851795057</v>
+        <v>4571939.202908011</v>
       </c>
       <c r="H39" t="n">
-        <v>2877197.880994993</v>
+        <v>4504947.008796124</v>
       </c>
       <c r="I39" t="n">
-        <v>2866240.37100533</v>
+        <v>4439533.415823029</v>
       </c>
       <c r="J39" t="n">
-        <v>2853858.357061241</v>
+        <v>4376362.940715643</v>
       </c>
       <c r="K39" t="n">
-        <v>2845282.950205384</v>
+        <v>4314481.828700025</v>
       </c>
       <c r="L39" t="n">
-        <v>2830980.860922429</v>
+        <v>4254157.448624527</v>
       </c>
       <c r="M39" t="n">
-        <v>2824574.439147664</v>
+        <v>4195352.687881488</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9329718.595506553</v>
+        <v>4504835.86499044</v>
       </c>
       <c r="C40" t="n">
-        <v>9304323.079461077</v>
+        <v>4426959.057029644</v>
       </c>
       <c r="D40" t="n">
-        <v>9268226.400474951</v>
+        <v>4351812.207119748</v>
       </c>
       <c r="E40" t="n">
-        <v>9242074.970107593</v>
+        <v>4279299.61730334</v>
       </c>
       <c r="F40" t="n">
-        <v>9207805.819764232</v>
+        <v>4209328.946647692</v>
       </c>
       <c r="G40" t="n">
-        <v>9180230.835464314</v>
+        <v>4141811.093459792</v>
       </c>
       <c r="H40" t="n">
-        <v>9148330.140601965</v>
+        <v>4076660.081613717</v>
       </c>
       <c r="I40" t="n">
-        <v>9118923.0373243</v>
+        <v>4013792.9508471</v>
       </c>
       <c r="J40" t="n">
-        <v>9089637.949986717</v>
+        <v>3953129.65088869</v>
       </c>
       <c r="K40" t="n">
-        <v>9058307.933195118</v>
+        <v>3894592.939283901</v>
       </c>
       <c r="L40" t="n">
-        <v>9031555.024733908</v>
+        <v>3838108.28279009</v>
       </c>
       <c r="M40" t="n">
-        <v>8998541.553427799</v>
+        <v>3783603.762217853</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6962158.375348228</v>
+        <v>2296913.522877602</v>
       </c>
       <c r="C41" t="n">
-        <v>6962157.266518418</v>
+        <v>2242765.72011069</v>
       </c>
       <c r="D41" t="n">
-        <v>6962155.804841061</v>
+        <v>2189894.40621255</v>
       </c>
       <c r="E41" t="n">
-        <v>6962153.990317415</v>
+        <v>2138269.489032644</v>
       </c>
       <c r="F41" t="n">
-        <v>6962151.822949036</v>
+        <v>2087861.585817554</v>
       </c>
       <c r="G41" t="n">
-        <v>6962149.302737754</v>
+        <v>2038642.006487538</v>
       </c>
       <c r="H41" t="n">
-        <v>6962146.429685616</v>
+        <v>1990582.737307332</v>
       </c>
       <c r="I41" t="n">
-        <v>6962143.203794958</v>
+        <v>1943656.424941901</v>
       </c>
       <c r="J41" t="n">
-        <v>6962139.625068381</v>
+        <v>1897836.360888056</v>
       </c>
       <c r="K41" t="n">
-        <v>6962135.69350876</v>
+        <v>1853096.466273087</v>
       </c>
       <c r="L41" t="n">
-        <v>6962131.409119217</v>
+        <v>1809411.277011757</v>
       </c>
       <c r="M41" t="n">
-        <v>6962126.771903135</v>
+        <v>1766755.929313201</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7914022.324114408</v>
+        <v>3496267.978430714</v>
       </c>
       <c r="C42" t="n">
-        <v>7849383.990539264</v>
+        <v>3465055.710525374</v>
       </c>
       <c r="D42" t="n">
-        <v>7785643.314732261</v>
+        <v>3427078.163469444</v>
       </c>
       <c r="E42" t="n">
-        <v>7722785.317705382</v>
+        <v>3394419.264892556</v>
       </c>
       <c r="F42" t="n">
-        <v>7660795.752205437</v>
+        <v>3365194.752980297</v>
       </c>
       <c r="G42" t="n">
-        <v>7599661.164528837</v>
+        <v>3329157.643978544</v>
       </c>
       <c r="H42" t="n">
-        <v>7539368.932262169</v>
+        <v>3298350.417770807</v>
       </c>
       <c r="I42" t="n">
-        <v>7479907.27637778</v>
+        <v>3271001.910233931</v>
       </c>
       <c r="J42" t="n">
-        <v>7421265.247105141</v>
+        <v>3236796.206206168</v>
       </c>
       <c r="K42" t="n">
-        <v>7363432.684014602</v>
+        <v>3207733.376399977</v>
       </c>
       <c r="L42" t="n">
-        <v>7306400.15175185</v>
+        <v>3182155.448093176</v>
       </c>
       <c r="M42" t="n">
-        <v>7250158.853812529</v>
+        <v>3149678.321034415</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4339415.545564333</v>
+        <v>3101131.763397448</v>
       </c>
       <c r="C43" t="n">
-        <v>4339415.578890111</v>
+        <v>3106441.388000488</v>
       </c>
       <c r="D43" t="n">
-        <v>4339415.609859893</v>
+        <v>3110186.075823974</v>
       </c>
       <c r="E43" t="n">
-        <v>4339415.638471566</v>
+        <v>3112208.512807779</v>
       </c>
       <c r="F43" t="n">
-        <v>4339415.664723192</v>
+        <v>3112603.411254175</v>
       </c>
       <c r="G43" t="n">
-        <v>4339415.688612973</v>
+        <v>3111345.291324921</v>
       </c>
       <c r="H43" t="n">
-        <v>4339415.710139289</v>
+        <v>3108383.668623302</v>
       </c>
       <c r="I43" t="n">
-        <v>4339415.729300674</v>
+        <v>3103887.651892722</v>
       </c>
       <c r="J43" t="n">
-        <v>4339415.746095819</v>
+        <v>3097783.366826706</v>
       </c>
       <c r="K43" t="n">
-        <v>4339415.760523587</v>
+        <v>3090184.777332485</v>
       </c>
       <c r="L43" t="n">
-        <v>4339415.772582994</v>
+        <v>3081190.83143153</v>
       </c>
       <c r="M43" t="n">
-        <v>4339415.782273218</v>
+        <v>3070760.89097598</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10995462.27909109</v>
+        <v>4536455.338953815</v>
       </c>
       <c r="C44" t="n">
-        <v>10324813.70787095</v>
+        <v>4536458.6908069</v>
       </c>
       <c r="D44" t="n">
-        <v>9749556.969836935</v>
+        <v>4536458.621361081</v>
       </c>
       <c r="E44" t="n">
-        <v>9256132.01060682</v>
+        <v>4536453.834395021</v>
       </c>
       <c r="F44" t="n">
-        <v>8832906.355900811</v>
+        <v>4536453.151755398</v>
       </c>
       <c r="G44" t="n">
-        <v>8469897.198382553</v>
+        <v>4536459.118183135</v>
       </c>
       <c r="H44" t="n">
-        <v>8158535.379086934</v>
+        <v>4536458.327798595</v>
       </c>
       <c r="I44" t="n">
-        <v>7891465.941702452</v>
+        <v>4536452.107132342</v>
       </c>
       <c r="J44" t="n">
-        <v>7662379.285383422</v>
+        <v>4536456.882542045</v>
       </c>
       <c r="K44" t="n">
-        <v>7465866.744823841</v>
+        <v>4536452.976701669</v>
       </c>
       <c r="L44" t="n">
-        <v>7297295.1120005</v>
+        <v>4536457.361627426</v>
       </c>
       <c r="M44" t="n">
-        <v>7152696.146922448</v>
+        <v>4536457.377054423</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2263668.583223688</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2263837.849813605</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2263941.133932294</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2263978.328713521</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2263949.421470178</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2263854.493497358</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2263693.719729784</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2263467.368255368</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2263175.799686943</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2262819.466394498</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2262398.911600461</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2261914.768340888</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8908882.022218727</v>
+        <v>2016385.262830216</v>
       </c>
       <c r="C46" t="n">
-        <v>8819559.7668455</v>
+        <v>2016422.295325145</v>
       </c>
       <c r="D46" t="n">
-        <v>8731133.074494107</v>
+        <v>2016310.765832189</v>
       </c>
       <c r="E46" t="n">
-        <v>8643592.966068316</v>
+        <v>2016452.348876125</v>
       </c>
       <c r="F46" t="n">
-        <v>8556930.552498145</v>
+        <v>2016337.128827613</v>
       </c>
       <c r="G46" t="n">
-        <v>8471137.033837216</v>
+        <v>2016380.078773194</v>
       </c>
       <c r="H46" t="n">
-        <v>8386203.698369209</v>
+        <v>2016426.51393434</v>
       </c>
       <c r="I46" t="n">
-        <v>8302121.921723222</v>
+        <v>2016309.193194193</v>
       </c>
       <c r="J46" t="n">
-        <v>8218883.165998052</v>
+        <v>2016450.648781944</v>
       </c>
       <c r="K46" t="n">
-        <v>8136478.978895216</v>
+        <v>2016341.424593807</v>
       </c>
       <c r="L46" t="n">
-        <v>8054900.992860693</v>
+        <v>2016374.899365097</v>
       </c>
       <c r="M46" t="n">
-        <v>7974140.924235251</v>
+        <v>2016430.513008227</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>516710.2384028197</v>
+        <v>527505.021388486</v>
       </c>
       <c r="C47" t="n">
-        <v>516710.2401923575</v>
+        <v>527497.3277505394</v>
       </c>
       <c r="D47" t="n">
-        <v>516710.2419781154</v>
+        <v>527489.6342573538</v>
       </c>
       <c r="E47" t="n">
-        <v>516710.243760094</v>
+        <v>527481.9409085233</v>
       </c>
       <c r="F47" t="n">
-        <v>516710.2455382957</v>
+        <v>527474.2477057129</v>
       </c>
       <c r="G47" t="n">
-        <v>516710.2473127181</v>
+        <v>527466.5546462052</v>
       </c>
       <c r="H47" t="n">
-        <v>516710.249083363</v>
+        <v>527458.8617314268</v>
       </c>
       <c r="I47" t="n">
-        <v>516710.2508502291</v>
+        <v>527451.1689605564</v>
       </c>
       <c r="J47" t="n">
-        <v>516710.2526133158</v>
+        <v>527443.476333946</v>
       </c>
       <c r="K47" t="n">
-        <v>516710.2543726247</v>
+        <v>527435.7838517353</v>
       </c>
       <c r="L47" t="n">
-        <v>516710.2561281584</v>
+        <v>527428.091512952</v>
       </c>
       <c r="M47" t="n">
-        <v>516710.2578799101</v>
+        <v>527420.3993192594</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>498360.1413507884</v>
+        <v>4611045.000230066</v>
       </c>
       <c r="C48" t="n">
-        <v>467741.7846162579</v>
+        <v>4602983.981453337</v>
       </c>
       <c r="D48" t="n">
-        <v>439004.5650179797</v>
+        <v>4594893.054878041</v>
       </c>
       <c r="E48" t="n">
-        <v>412032.9088510661</v>
+        <v>4586808.930885583</v>
       </c>
       <c r="F48" t="n">
-        <v>386718.3430525782</v>
+        <v>4578798.215529755</v>
       </c>
       <c r="G48" t="n">
-        <v>362959.0589507706</v>
+        <v>4570862.76763171</v>
       </c>
       <c r="H48" t="n">
-        <v>340659.5028168025</v>
+        <v>4562936.877677292</v>
       </c>
       <c r="I48" t="n">
-        <v>319729.9915722208</v>
+        <v>4554980.269024774</v>
       </c>
       <c r="J48" t="n">
-        <v>300086.3521066883</v>
+        <v>4547035.032718655</v>
       </c>
       <c r="K48" t="n">
-        <v>281649.5827553868</v>
+        <v>4539165.753999665</v>
       </c>
       <c r="L48" t="n">
-        <v>264345.535574643</v>
+        <v>4531367.739759076</v>
       </c>
       <c r="M48" t="n">
-        <v>248104.6181379739</v>
+        <v>4523573.493520912</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>442888.2846104751</v>
+        <v>511749.7108544966</v>
       </c>
       <c r="C49" t="n">
-        <v>442888.2842419829</v>
+        <v>505974.4749815479</v>
       </c>
       <c r="D49" t="n">
-        <v>442888.2838414585</v>
+        <v>500284.4549279668</v>
       </c>
       <c r="E49" t="n">
-        <v>442888.2834089448</v>
+        <v>494746.520831608</v>
       </c>
       <c r="F49" t="n">
-        <v>442888.2829444882</v>
+        <v>489330.2139426486</v>
       </c>
       <c r="G49" t="n">
-        <v>442888.2824481383</v>
+        <v>483940.784563698</v>
       </c>
       <c r="H49" t="n">
-        <v>442888.2819199483</v>
+        <v>478573.8536783063</v>
       </c>
       <c r="I49" t="n">
-        <v>442888.2813599748</v>
+        <v>473312.7856614245</v>
       </c>
       <c r="J49" t="n">
-        <v>442888.2807682775</v>
+        <v>468137.7987750901</v>
       </c>
       <c r="K49" t="n">
-        <v>442888.28014492</v>
+        <v>463087.0420369876</v>
       </c>
       <c r="L49" t="n">
-        <v>442888.2794899688</v>
+        <v>458055.080765183</v>
       </c>
       <c r="M49" t="n">
-        <v>442888.2788034942</v>
+        <v>453067.142097873</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1500586.163474062</v>
+        <v>907651.5359560652</v>
       </c>
       <c r="C50" t="n">
-        <v>1509449.254983717</v>
+        <v>908908.1482647322</v>
       </c>
       <c r="D50" t="n">
-        <v>1519242.147609279</v>
+        <v>910162.0437435266</v>
       </c>
       <c r="E50" t="n">
-        <v>1516208.481117448</v>
+        <v>911413.1932375794</v>
       </c>
       <c r="F50" t="n">
-        <v>1498408.446055229</v>
+        <v>912661.5679004304</v>
       </c>
       <c r="G50" t="n">
-        <v>1477533.774800271</v>
+        <v>913907.1391921062</v>
       </c>
       <c r="H50" t="n">
-        <v>1466848.797358715</v>
+        <v>915149.8788771564</v>
       </c>
       <c r="I50" t="n">
-        <v>1467388.062081861</v>
+        <v>916389.7590228068</v>
       </c>
       <c r="J50" t="n">
-        <v>1466633.236804708</v>
+        <v>917626.75199698</v>
       </c>
       <c r="K50" t="n">
-        <v>1452146.882041804</v>
+        <v>918860.8304664455</v>
       </c>
       <c r="L50" t="n">
-        <v>1424932.024779231</v>
+        <v>920091.9673949145</v>
       </c>
       <c r="M50" t="n">
-        <v>1398148.725983328</v>
+        <v>921320.1360411635</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1834063.892217475</v>
+        <v>1412213.843803141</v>
       </c>
       <c r="C51" t="n">
-        <v>1720938.196050594</v>
+        <v>1411554.858114555</v>
       </c>
       <c r="D51" t="n">
-        <v>1619632.055321008</v>
+        <v>1410896.33128944</v>
       </c>
       <c r="E51" t="n">
-        <v>1528911.152236033</v>
+        <v>1410238.263008311</v>
       </c>
       <c r="F51" t="n">
-        <v>1447670.032843634</v>
+        <v>1409580.652951851</v>
       </c>
       <c r="G51" t="n">
-        <v>1374918.653531355</v>
+        <v>1408923.500800986</v>
       </c>
       <c r="H51" t="n">
-        <v>1309770.332084283</v>
+        <v>1408266.806236897</v>
       </c>
       <c r="I51" t="n">
-        <v>1251430.956664649</v>
+        <v>1407610.568940919</v>
       </c>
       <c r="J51" t="n">
-        <v>1199189.321384778</v>
+        <v>1406954.788594689</v>
       </c>
       <c r="K51" t="n">
-        <v>1152408.470855887</v>
+        <v>1406299.46487999</v>
       </c>
       <c r="L51" t="n">
-        <v>1110517.948374666</v>
+        <v>1405644.597478881</v>
       </c>
       <c r="M51" t="n">
-        <v>1073006.853406881</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1866608.441494292</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1866559.385284589</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1866501.154121113</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1866454.241476892</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1866435.157295653</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1866450.618477989</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1866495.184551967</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1866553.171070447</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1866604.169074082</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1866630.228891109</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1866622.178791077</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1866582.852987777</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1303666.333543538</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1301173.063619185</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1298686.390347093</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1296206.296273969</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1293732.763992662</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1291265.7761421</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1288805.315407129</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1286351.364518416</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1283903.90625232</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1281462.923430764</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1279028.398921117</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1276600.315636093</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1004972.355961666</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1004972.366974522</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1004972.377151762</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1004972.386483684</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1004972.394961399</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1004972.402576825</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1004972.409322706</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1004972.415192613</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1004972.420180952</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1004972.424282972</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1004972.42749476</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1004972.429813257</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3127162.23787442</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3127162.238996249</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3127162.240051922</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3127162.241041283</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3127162.241964184</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3127162.242820487</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3127162.243610066</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3127162.244332801</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3127162.244988584</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3127162.24557732</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3127162.246098918</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3127162.246553301</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3409844.551647026</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3039550.531644836</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3391821.026132252</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3056583.344286519</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3209964.85777839</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3164959.789438974</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2976675.082220079</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3252873.021019142</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2867468.371064422</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3206404.253440727</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2914211.817104222</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3004565.515370695</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2956554.818785142</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2956552.331089828</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2956549.843397837</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2956547.355709177</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2956544.868023835</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2956542.38034182</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2956539.892663144</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2956537.404987797</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2956534.917315748</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2956532.429647036</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2956529.94198167</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2956527.454319619</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3852564.437824926</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3841138.385279433</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3829746.220467393</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3818387.842883534</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3807063.15232067</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3795772.048868814</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3784514.432914292</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3773290.205138864</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3762099.266518861</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3750941.518324291</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3739816.862117985</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3728725.19975472</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2522307.555434972</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2512192.216640816</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2503139.008131999</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2495808.128666054</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2488732.080233224</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2480183.079095351</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2470380.303490708</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2461207.254135642</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2453809.1126711</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2447135.067433829</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2439273.624407113</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2429893.120608548</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3378585.596633086</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3369897.519817953</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3361649.70736077</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3353779.990085395</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3345950.055012644</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3337819.524529925</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3329321.309909458</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3320715.82501507</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3312380.144696538</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3304502.259531726</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3296928.487116385</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3289288.081613486</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2294592.461008906</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2185397.608856808</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2102899.280582923</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2027459.4732132</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1960056.841754925</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1903273.79574103</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1859081.15730955</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1828477.913042159</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1811422.759808497</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1806899.781227606</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1813097.473680726</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1827682.025151045</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4728406.426505046</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4715300.400838049</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4702248.944449378</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4689251.828944229</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4676308.826953055</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4663419.71215352</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4650584.259289969</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4637802.244189868</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4625073.443776721</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4612397.636079075</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4599774.600235291</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4587204.116493898</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2349721.45862056</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2306992.434767127</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2265040.426194705</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2223851.303098948</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2183411.192622028</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2143706.474180137</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2104723.77487595</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2066449.964994519</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2028872.15358107</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1991977.684099217</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1955754.130168127</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1920189.291377208</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2017775.172037899</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2019074.186017106</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2019717.864015646</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2019032.110303311</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2017735.252221614</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2017184.875273667</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2017957.094750497</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2019243.750251352</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2019697.474912513</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2018843.156480157</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2017575.584845857</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2017221.600681854</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1614226.46479411</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1511674.013573071</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1464935.798769013</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1282101.488469749</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1209174.687193772</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1172967.095374926</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1132726.328679996</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1174683.623621501</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1124146.782319077</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1069841.3003625</v>
-      </c>
-      <c r="L65" t="n">
-        <v>989014.2323849101</v>
-      </c>
-      <c r="M65" t="n">
-        <v>968267.6948098495</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2667742.159121394</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2667742.159247527</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2667742.159373282</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2667742.159498658</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2667742.159623656</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2667742.159748286</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2667742.159872537</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2667742.159996409</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2667742.160119914</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2667742.160243033</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2667742.160365779</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2667742.160488162</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>463871.4546216676</v>
-      </c>
-      <c r="C67" t="n">
-        <v>458545.5387660485</v>
-      </c>
-      <c r="D67" t="n">
-        <v>453280.7721348936</v>
-      </c>
-      <c r="E67" t="n">
-        <v>448076.4526465789</v>
-      </c>
-      <c r="F67" t="n">
-        <v>442931.8862803939</v>
-      </c>
-      <c r="G67" t="n">
-        <v>437846.3869839906</v>
-      </c>
-      <c r="H67" t="n">
-        <v>432819.2765818957</v>
-      </c>
-      <c r="I67" t="n">
-        <v>427849.8846850712</v>
-      </c>
-      <c r="J67" t="n">
-        <v>422937.5486015165</v>
-      </c>
-      <c r="K67" t="n">
-        <v>418081.6132478944</v>
-      </c>
-      <c r="L67" t="n">
-        <v>413281.4310621729</v>
-      </c>
-      <c r="M67" t="n">
-        <v>408536.3619172688</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2427008.042969966</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2410868.734558195</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2395892.470116638</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2380797.097470475</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2365061.149122506</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2350397.234490791</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2335895.175793219</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2320596.91467114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2306207.11175164</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2292258.92969159</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2277432.838139892</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2263291.56938226</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>776855.8025251664</v>
-      </c>
-      <c r="C69" t="n">
-        <v>776855.6823578291</v>
-      </c>
-      <c r="D69" t="n">
-        <v>776855.5621905029</v>
-      </c>
-      <c r="E69" t="n">
-        <v>776855.4420231692</v>
-      </c>
-      <c r="F69" t="n">
-        <v>776855.321855858</v>
-      </c>
-      <c r="G69" t="n">
-        <v>776855.2016885467</v>
-      </c>
-      <c r="H69" t="n">
-        <v>776855.0815212354</v>
-      </c>
-      <c r="I69" t="n">
-        <v>776854.961353939</v>
-      </c>
-      <c r="J69" t="n">
-        <v>776854.8411866389</v>
-      </c>
-      <c r="K69" t="n">
-        <v>776854.7210193537</v>
-      </c>
-      <c r="L69" t="n">
-        <v>776854.6008520611</v>
-      </c>
-      <c r="M69" t="n">
-        <v>776854.4806847945</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2266948.270978393</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2297769.24601522</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2322593.559300579</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2341351.53671093</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2354087.851546782</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2360938.624159595</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2362111.847633585</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2357870.723228993</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2348519.536996269</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2334391.751520358</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2315840.02468449</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2293227.901133727</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>10171361.44353617</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10171367.10619629</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10171369.61264148</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10171364.42099025</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10171371.54534248</v>
-      </c>
-      <c r="G71" t="n">
-        <v>10171373.69499676</v>
-      </c>
-      <c r="H71" t="n">
-        <v>10171371.61202448</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10171357.44314896</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10171358.37639548</v>
-      </c>
-      <c r="K71" t="n">
-        <v>10171359.24417014</v>
-      </c>
-      <c r="L71" t="n">
-        <v>10171365.68236653</v>
-      </c>
-      <c r="M71" t="n">
-        <v>10171370.40024435</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3897958.976753731</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3889016.568821954</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3880105.038624539</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3871224.279406391</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3862374.184781537</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3853554.648731854</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3844765.565605777</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3836006.83011707</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3827278.337343547</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3818579.9827258</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3809911.662065988</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3801273.271526559</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>5569477.934081456</v>
-      </c>
-      <c r="C73" t="n">
-        <v>5225767.896985216</v>
-      </c>
-      <c r="D73" t="n">
-        <v>4903269.289577526</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4600673.087678488</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4316751.051116108</v>
-      </c>
-      <c r="G73" t="n">
-        <v>4050350.738290548</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3800390.828405345</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3565856.732378472</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3345796.474617918</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3139316.828945876</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2945579.692987226</v>
-      </c>
-      <c r="M73" t="n">
-        <v>2763798.686305935</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15330180.91470302</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15642546.32027449</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15242849.74394262</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15640737.75252912</v>
-      </c>
-      <c r="F74" t="n">
-        <v>15244186.66229722</v>
-      </c>
-      <c r="G74" t="n">
-        <v>15639310.56823128</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15245651.82822118</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15637754.26326023</v>
-      </c>
-      <c r="J74" t="n">
-        <v>15247242.72853173</v>
-      </c>
-      <c r="K74" t="n">
-        <v>15636069.61055032</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15248958.32629471</v>
-      </c>
-      <c r="M74" t="n">
-        <v>15634258.9432353</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>19637943.49113523</v>
-      </c>
-      <c r="C75" t="n">
-        <v>19724379.27007458</v>
-      </c>
-      <c r="D75" t="n">
-        <v>19441449.28818439</v>
-      </c>
-      <c r="E75" t="n">
-        <v>18880380.59221877</v>
-      </c>
-      <c r="F75" t="n">
-        <v>18654992.1647874</v>
-      </c>
-      <c r="G75" t="n">
-        <v>17187790.53489233</v>
-      </c>
-      <c r="H75" t="n">
-        <v>18638064.19848471</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17623719.83607777</v>
-      </c>
-      <c r="J75" t="n">
-        <v>16302125.76170387</v>
-      </c>
-      <c r="K75" t="n">
-        <v>18639156.48451912</v>
-      </c>
-      <c r="L75" t="n">
-        <v>16625926.0753179</v>
-      </c>
-      <c r="M75" t="n">
-        <v>16481907.38109972</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>10013247.44140314</v>
-      </c>
-      <c r="C76" t="n">
-        <v>7177240.308446221</v>
-      </c>
-      <c r="D76" t="n">
-        <v>4883740.502666691</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3373043.179367997</v>
-      </c>
-      <c r="F76" t="n">
-        <v>2486835.424564987</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2004392.303556003</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1755126.238619857</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1631216.504101217</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1571425.144041803</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1543246.021631245</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1530217.688973295</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1524289.153781328</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>11603250.65957914</v>
-      </c>
-      <c r="C77" t="n">
-        <v>10839090.15735397</v>
-      </c>
-      <c r="D77" t="n">
-        <v>10173865.25655634</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9584154.378269369</v>
-      </c>
-      <c r="F77" t="n">
-        <v>9068686.173872419</v>
-      </c>
-      <c r="G77" t="n">
-        <v>8601373.307869747</v>
-      </c>
-      <c r="H77" t="n">
-        <v>8174959.265661689</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7787823.325552029</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7430017.010924922</v>
-      </c>
-      <c r="K77" t="n">
-        <v>7099536.573623464</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6787889.727306493</v>
-      </c>
-      <c r="M77" t="n">
-        <v>6493987.074012032</v>
+        <v>1404990.186073624</v>
       </c>
     </row>
   </sheetData>
